--- a/data/trans_camb/P22_R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P22_R3-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.202496912546287</v>
+        <v>-6.493479066778645</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.422445160389282</v>
+        <v>-8.710432586864785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.805945303200351</v>
+        <v>-7.965831281685594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.9684788824837</v>
+        <v>-4.102050427119143</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.832747607002996</v>
+        <v>-4.622603031648991</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.996435195718689</v>
+        <v>-3.855828544844118</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.323832660070822</v>
+        <v>-4.445387669662903</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.850898688986869</v>
+        <v>-5.644323780232964</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.863645301665938</v>
+        <v>-5.090763328852153</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.547611067105855</v>
+        <v>1.396294230201417</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.789264643697238</v>
+        <v>-1.590990675177463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.6717092069876955</v>
+        <v>-0.6703593408881386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.020087397232883</v>
+        <v>1.901503728276952</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.465032483920837</v>
+        <v>1.556601281011818</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.625256545541101</v>
+        <v>1.451689722634466</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8259238968884844</v>
+        <v>0.713194080591417</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.8802152958115043</v>
+        <v>-1.004899464980734</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.5552478923697093</v>
+        <v>-0.369866380460103</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6777945825926989</v>
+        <v>-0.7050883275859929</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8922965336665986</v>
+        <v>-0.8847094647258564</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8192043823611024</v>
+        <v>-0.8000125016368248</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7449457790925992</v>
+        <v>-0.750852313566866</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8459059328401984</v>
+        <v>-0.8213281693953846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6577563435167222</v>
+        <v>-0.6520288286552782</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6180054697356725</v>
+        <v>-0.6367701640793906</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8007047177492871</v>
+        <v>-0.7983706778238613</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6879845518953888</v>
+        <v>-0.6884009888500033</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4198269309730794</v>
+        <v>0.3214272337582588</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.131565335003784</v>
+        <v>-0.1819242231423014</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.08403456710434998</v>
+        <v>-0.0603709039717712</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.396224159882788</v>
+        <v>1.214333843034456</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.28251370956898</v>
+        <v>1.116758860994716</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.071044574716056</v>
+        <v>0.9272200335660971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2530590484681416</v>
+        <v>0.2026120766674751</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1311105161274026</v>
+        <v>-0.1804302111274914</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1031296357319682</v>
+        <v>-0.05637501113474328</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8417348186540158</v>
+        <v>-1.045147992683521</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.443679341057339</v>
+        <v>-4.263957779078434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.312501820618715</v>
+        <v>-3.383628104173848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.544732225572221</v>
+        <v>-1.50529195319476</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.833980748548229</v>
+        <v>-3.885563406619314</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.022077943241539</v>
+        <v>-4.192942135391277</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4388921067766364</v>
+        <v>-0.5019052116641965</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.427953495139924</v>
+        <v>-3.514701752028117</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.094476051098578</v>
+        <v>-2.973090205912122</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.321577179268253</v>
+        <v>5.146328848972755</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.06071965903342842</v>
+        <v>-0.1270050121737998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.934910522032673</v>
+        <v>1.88199258585388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.514214143234239</v>
+        <v>4.216896092624188</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.033207802267219</v>
+        <v>1.041999188274024</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0932978792276468</v>
+        <v>0.2065090500170717</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.823709322748655</v>
+        <v>3.665357468707809</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.2344864156218921</v>
+        <v>-0.169626716619023</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2764590376397164</v>
+        <v>0.2920947710552452</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1890916793409332</v>
+        <v>-0.2141086148487715</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8149605713287028</v>
+        <v>-0.8219880928963038</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6385629094646985</v>
+        <v>-0.609312291010738</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3021713438824736</v>
+        <v>-0.2896692601998512</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6628788655950074</v>
+        <v>-0.6463139813671975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6827239097047353</v>
+        <v>-0.7008859820277632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09611356269124158</v>
+        <v>-0.1011302362149035</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6639786109205654</v>
+        <v>-0.6579945755331289</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.573605691863515</v>
+        <v>-0.5839943545508403</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.855781529254112</v>
+        <v>1.697052679472159</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01001850781926553</v>
+        <v>0.03001878112150648</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7133877770160015</v>
+        <v>0.6622031312533391</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.460058704531541</v>
+        <v>1.331245770885014</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3645614325238651</v>
+        <v>0.3592695004999159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1000629265435466</v>
+        <v>0.1331196157682888</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.131585646091651</v>
+        <v>1.097539184609075</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05883470670270058</v>
+        <v>-0.03663654619082891</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1168259107495004</v>
+        <v>0.1115597336617624</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.867729865012399</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.4208939241046514</v>
+        <v>-0.4208939241046518</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.916863742351564</v>
+        <v>-1.189386088692765</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.079486133333232</v>
+        <v>1.118997018082478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.982657093160014</v>
+        <v>-2.850345000694789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.643884646587204</v>
+        <v>-1.70419308312762</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9405458729990059</v>
+        <v>-1.047557845275657</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.05957245750229</v>
+        <v>-2.927200795722918</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6467827273234937</v>
+        <v>-0.4645834914047315</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.79769582655736</v>
+        <v>0.7111413026514678</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.030102111529175</v>
+        <v>-1.981788820099483</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.59601684303514</v>
+        <v>5.596775021403182</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.147199121162249</v>
+        <v>8.102900863779491</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.87372785785407</v>
+        <v>2.976674392646882</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.323104462127039</v>
+        <v>3.230486329461316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.040639138548908</v>
+        <v>3.826611069952916</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6531405778800887</v>
+        <v>0.6208093217266343</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.324237874980168</v>
+        <v>3.453361716240096</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.968015214468998</v>
+        <v>4.79814322595684</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.259663699925052</v>
+        <v>1.408302418570596</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>1.10364865534226</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1619814401095333</v>
+        <v>-0.1619814401095334</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.281399073086488</v>
+        <v>-0.3555763687404135</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1424459185875536</v>
+        <v>0.1950595773189825</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6769061918941082</v>
+        <v>-0.6622243846190644</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6072538205026571</v>
+        <v>-0.6090428796502614</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3502803513147582</v>
+        <v>-0.365796693830418</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8005519929648567</v>
+        <v>-0.8247893726163137</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2064226934489868</v>
+        <v>-0.1765038900742124</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1943040678149448</v>
+        <v>0.1461203911202861</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5811970873797148</v>
+        <v>-0.5625075777127753</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.377750731533137</v>
+        <v>3.299656916543884</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.53030629919334</v>
+        <v>4.809884465740286</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.68561598224531</v>
+        <v>1.694077394240124</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.595971936984121</v>
+        <v>2.548188622382491</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.515300200549041</v>
+        <v>3.641562515952575</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7269811037102735</v>
+        <v>0.5745155614877504</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.913038940507128</v>
+        <v>2.036743232223483</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.921195454581388</v>
+        <v>2.656925513903711</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7852222335469505</v>
+        <v>0.9111244804025311</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.043297133765792</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.3763637831361293</v>
+        <v>-0.3763637831361306</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.277959172077447</v>
@@ -1297,7 +1297,7 @@
         <v>-1.015134761198445</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.3410056433251665</v>
+        <v>0.3410056433251673</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.9976471742264348</v>
@@ -1306,7 +1306,7 @@
         <v>-1.522551354337416</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.05699544583900179</v>
+        <v>-0.05699544583900248</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.45530989960274</v>
+        <v>-3.259187274153356</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.584989490233976</v>
+        <v>-5.392214407889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.977090353870593</v>
+        <v>-3.96169644044428</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.009989077705164</v>
+        <v>-1.334994702458977</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.57305807243057</v>
+        <v>-3.469273790982041</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.162196825122997</v>
+        <v>-2.323189772669145</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.281309600660718</v>
+        <v>-1.387755970780805</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.770825146288787</v>
+        <v>-3.394788359375525</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.037167352068773</v>
+        <v>-2.081638825247075</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.528816817689079</v>
+        <v>4.691114838947789</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.464065135846889</v>
+        <v>1.3522603635082</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.448108107090182</v>
+        <v>3.123697939955401</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.167045014689974</v>
+        <v>3.941988127962982</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.637835972391469</v>
+        <v>1.653141510191789</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.743792426048714</v>
+        <v>2.638581966911127</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.41155583156671</v>
+        <v>3.530766813425382</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6360815147250733</v>
+        <v>0.6927686795212185</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.168938367883389</v>
+        <v>2.047240177942589</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3245776609864051</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05978537061087154</v>
+        <v>-0.05978537061087176</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3786207765622916</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3007538268812857</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1010296919564454</v>
+        <v>0.1010296919564456</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2075414950885955</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3167378133189929</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.01185681706745626</v>
+        <v>-0.0118568170674564</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4330324290921117</v>
+        <v>-0.4060773300713168</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6601594169250925</v>
+        <v>-0.6690605290530326</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4931513868908269</v>
+        <v>-0.4873499559613941</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2620117940220482</v>
+        <v>-0.329604305437964</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7565268265715631</v>
+        <v>-0.7580552636111941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4603661774754663</v>
+        <v>-0.4810136029592756</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2335869833825716</v>
+        <v>-0.2380614969183662</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6188820515819877</v>
+        <v>-0.5844817530714904</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3551368239213131</v>
+        <v>-0.3552680952985952</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9702735624238423</v>
+        <v>1.017420240730629</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.42193481584014</v>
+        <v>0.3651238269928788</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8550916240730105</v>
+        <v>0.6759898323439965</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.027665822531941</v>
+        <v>1.895534401356601</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8407839508922633</v>
+        <v>0.8080297504513086</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.39339260922202</v>
+        <v>1.392471383195653</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8581262789183675</v>
+        <v>0.9708964319073017</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2028528579084513</v>
+        <v>0.213849035145504</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5992679733332976</v>
+        <v>0.5734466704995852</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-6.285823389348651</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.352305375633063</v>
+        <v>-5.352305375633064</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.845496783998104</v>
@@ -1520,7 +1520,7 @@
         <v>-3.325986303167676</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.470502857840313</v>
+        <v>-3.470502857840315</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.508577311748348</v>
+        <v>-6.553895920528785</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.046404920126165</v>
+        <v>-4.155173788538701</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.988293140893783</v>
+        <v>-5.320844745739318</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.852262269747891</v>
+        <v>-10.11773044981074</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.86312074717598</v>
+        <v>-10.61797378691359</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.04793405781815</v>
+        <v>-10.36727217839382</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.884365060416576</v>
+        <v>-6.98446240698959</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.330253425754898</v>
+        <v>-6.271021391677627</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-6.85724996946748</v>
+        <v>-6.44725443079243</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7249989825820833</v>
+        <v>0.9218462177390672</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.176570718921284</v>
+        <v>4.04211677850419</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.685341204973163</v>
+        <v>2.093006490893269</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.923619165929525</v>
+        <v>-1.608066094361505</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.739882118585472</v>
+        <v>-2.899970646288813</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.958001541828414</v>
+        <v>-2.311395822807753</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.248583581994128</v>
+        <v>-1.374799443809037</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.507083986009043</v>
+        <v>-0.4994910252896648</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.982196831865409</v>
+        <v>-1.01008912076372</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.8387460938028218</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.7141825260727312</v>
+        <v>-0.7141825260727314</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.628810130480795</v>
@@ -1625,7 +1625,7 @@
         <v>-0.5438605201738832</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.5674916603632285</v>
+        <v>-0.5674916603632287</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8742682320019793</v>
+        <v>-0.8994393551414533</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7218568085630275</v>
+        <v>-0.7045759420913476</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7543282821753567</v>
+        <v>-0.7264088199801482</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9134382543308329</v>
+        <v>-0.9212664116792375</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.9668701058874043</v>
+        <v>-0.9616255501903763</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8743707287227683</v>
+        <v>-0.8691246413456465</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.8293424269401645</v>
+        <v>-0.8291100007010944</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8063982593494958</v>
+        <v>-0.7888204349124657</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7852939085747557</v>
+        <v>-0.7661676041871316</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4883682854973861</v>
+        <v>0.5462310480004483</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.725902831591886</v>
+        <v>1.696008527953245</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.792757641887189</v>
+        <v>1.065040681076895</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.1621849104407236</v>
+        <v>-0.211953700014365</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.4296572110599112</v>
+        <v>-0.4352935907343288</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3513248894500452</v>
+        <v>-0.3929937779392354</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2373500101229821</v>
+        <v>-0.2663731417760701</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.07371367363503364</v>
+        <v>-0.05553933289560671</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2117181396232622</v>
+        <v>-0.205078781831516</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.892035835547663</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.946751586616502</v>
+        <v>-0.9467515866165032</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.473013929085948</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.055924190730246</v>
+        <v>-5.313197453320563</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.591718183663518</v>
+        <v>-4.923109857767839</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.262064930028525</v>
+        <v>-7.113399209670608</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.403991885789146</v>
+        <v>-4.397655733741901</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.730854139051539</v>
+        <v>-4.484224471974962</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.709713822896143</v>
+        <v>-3.574707288566261</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.88739566515425</v>
+        <v>-3.672272358353797</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.722212813797491</v>
+        <v>-3.758549368019753</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.609133539675199</v>
+        <v>-4.538175390005509</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.924726831359231</v>
+        <v>2.814533008705906</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.225050431377014</v>
+        <v>3.33245573583513</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.098484936503926</v>
+        <v>-0.9810064817473972</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.791074308520313</v>
+        <v>0.9432737406763027</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.5696571853268777</v>
+        <v>0.3133601019916089</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.245473346730166</v>
+        <v>1.243104540101132</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9826384823177707</v>
+        <v>1.174195357975243</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.126435981825078</v>
+        <v>0.8650667645174489</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.5394775440454613</v>
+        <v>-0.5472400037095301</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.5759544345954021</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2882005533548314</v>
+        <v>-0.2882005533548317</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.3192039930237983</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6934793158007154</v>
+        <v>-0.6951007047976896</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6277158689362227</v>
+        <v>-0.6505557588430274</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8519736249781432</v>
+        <v>-0.8357104303347525</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.851868767353367</v>
+        <v>-0.8525908445744503</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8913689072898727</v>
+        <v>-0.9002495514925529</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7221574912611028</v>
+        <v>-0.7207587391276741</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6491584181937486</v>
+        <v>-0.6495647759330233</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.6390561869751763</v>
+        <v>-0.6472755462871725</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7321417311505888</v>
+        <v>-0.7317279405730232</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7694464101219832</v>
+        <v>0.7558760128089902</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8649899409466235</v>
+        <v>0.8981452819257696</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2377958415820085</v>
+        <v>-0.141911405111641</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.655486123196667</v>
+        <v>0.715356770626973</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7195485845407388</v>
+        <v>0.5958802763544716</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7976208747010702</v>
+        <v>0.8598086269754217</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3361717477577165</v>
+        <v>0.3420851185690305</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3574999359398113</v>
+        <v>0.3080462875448829</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1311845544105034</v>
+        <v>-0.1544519827386187</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.165889339094282</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.7259832701012457</v>
+        <v>-0.7259832701012454</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.297821744267765</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.380544581175717</v>
+        <v>-0.5196470822538845</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.927701318457528</v>
+        <v>1.870776757211462</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.1189416110446585</v>
+        <v>-0.09949617228002088</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.975090505419649</v>
+        <v>-3.041851905777464</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.18313248677992</v>
+        <v>-1.033239898035607</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.992301576233507</v>
+        <v>-2.756065637161102</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.144476666432802</v>
+        <v>-0.9991823082630241</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.122290875203497</v>
+        <v>0.9991673607873678</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.8232093547847423</v>
+        <v>-0.7405287525469074</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.541081619123821</v>
+        <v>3.709529516977596</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.856147835464105</v>
+        <v>6.901210777477769</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.857841873544267</v>
+        <v>4.914135788766435</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.131471062172609</v>
+        <v>1.230399049006594</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.217144867160634</v>
+        <v>3.36324632099938</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.039069206908942</v>
+        <v>1.031900276661095</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.793439020378754</v>
+        <v>1.702547168073551</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.344889529110037</v>
+        <v>4.215069376524179</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.168947915144638</v>
+        <v>2.235265624185256</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.3179945909129431</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1980108619612461</v>
+        <v>-0.198010861961246</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.09680901481161326</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1545004252925223</v>
+        <v>-0.180472748428432</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.498148054636802</v>
+        <v>0.4878076897931268</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.08729254877016156</v>
+        <v>-0.0999033044347</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6285720750863907</v>
+        <v>-0.6191194553891127</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2430828039618065</v>
+        <v>-0.2571587173176292</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5848988765685733</v>
+        <v>-0.5640112912818078</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2999892124651011</v>
+        <v>-0.2855672607948824</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3010552009284549</v>
+        <v>0.2452992867804645</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2427487351206973</v>
+        <v>-0.2177415387884704</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.146398676108366</v>
+        <v>2.22286309699903</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.817500597290914</v>
+        <v>4.053641359880636</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.731568777400387</v>
+        <v>2.572350404974797</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4824742968276534</v>
+        <v>0.5346743547220771</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.240995185269963</v>
+        <v>1.216091426395484</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.392762486774861</v>
+        <v>0.4060476592364503</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7132635905029924</v>
+        <v>0.7160304506787243</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.811357833547397</v>
+        <v>1.826154795042498</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.919131213629266</v>
+        <v>0.9180335588900641</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>1.987665121722384</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.8121128609086519</v>
+        <v>0.8121128609086512</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-2.496661969425451</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.7915604386767808</v>
+        <v>-0.5982422547529654</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.1827628757854325</v>
+        <v>0.1032030275965376</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.8830608462413774</v>
+        <v>-0.9053790609242423</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.862435933464707</v>
+        <v>-4.914169959967025</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.674909771016479</v>
+        <v>-3.903543559858758</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.099881281140987</v>
+        <v>-5.138160050904767</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.125445022993735</v>
+        <v>-2.200790780329318</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.246718473078107</v>
+        <v>-1.16649630563317</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.355750557859848</v>
+        <v>-2.347709095304161</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.361835745978555</v>
+        <v>3.20532451868494</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.010366791740271</v>
+        <v>3.823235345565178</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.673467609924162</v>
+        <v>2.576774811299545</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.2921644937552062</v>
+        <v>-0.2314989190871783</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.8543123785162112</v>
+        <v>0.7722671838787269</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-0.7906614087244366</v>
+        <v>-0.9006805461881764</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.8090090984040084</v>
+        <v>0.7413392773123396</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.798680777197102</v>
+        <v>1.940397947827114</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.4594261548906863</v>
+        <v>0.3614129650451263</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.7862229733545451</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.3212320733634352</v>
+        <v>0.321232073363435</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.420927141759135</v>
@@ -2258,7 +2258,7 @@
         <v>-0.2242141008544081</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.4650934255512872</v>
+        <v>-0.4650934255512871</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.170337658391301</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2824181284961353</v>
+        <v>-0.2428919222683169</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.01172654413502653</v>
+        <v>0.02699188536483413</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2789248752093118</v>
+        <v>-0.2862332603531115</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6841176785151424</v>
+        <v>-0.6670293985334644</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5185533238085419</v>
+        <v>-0.5321923483760779</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6578029493894054</v>
+        <v>-0.6865288211100166</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4324203947194511</v>
+        <v>-0.444780685594136</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2401927733452199</v>
+        <v>-0.235399213103869</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4670367262803695</v>
+        <v>-0.4525815394852516</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.819759421243347</v>
+        <v>1.795996106504987</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.259391450135289</v>
+        <v>2.211374016149372</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.454555379440527</v>
+        <v>1.41824071276533</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.02079709443924514</v>
+        <v>-0.02986641873076764</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1821138218547407</v>
+        <v>0.1817212401985581</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1627243730698772</v>
+        <v>-0.1808857674015373</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2368106895345296</v>
+        <v>0.1865691441728294</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4858070587365482</v>
+        <v>0.5568239187141406</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1492184156529</v>
+        <v>0.1177225273226172</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>0.6138772492553318</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.3288751037306754</v>
+        <v>-0.3288751037306747</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-0.8838016700693729</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.4134173405686532</v>
+        <v>-0.3856039969206071</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.5186729603706699</v>
+        <v>-0.4658612582395101</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.327139226209879</v>
+        <v>-1.278543784639226</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.791061033699133</v>
+        <v>-1.922125368545929</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.816635002899957</v>
+        <v>-1.862382141116954</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-2.371864132110812</v>
+        <v>-2.463669773140666</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.8141728720375194</v>
+        <v>-0.8228506016609732</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.8097789683355786</v>
+        <v>-0.8657304232315094</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-1.610838964014655</v>
+        <v>-1.599364937019031</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.847425528062778</v>
+        <v>1.72871584315471</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.652728344677416</v>
+        <v>1.63254733071414</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.5999260966412552</v>
+        <v>0.7230756281506626</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.1046077694221881</v>
+        <v>0.1125649085406606</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.0172860051284443</v>
+        <v>0.07021086518691595</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-0.7772687805106715</v>
+        <v>-0.76983941330634</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.557557879535213</v>
+        <v>0.5674787621967203</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.5445784687526952</v>
+        <v>0.5389732046468368</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-0.2884618323236593</v>
+        <v>-0.343579818856088</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1535136313363598</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.08224251915356266</v>
+        <v>-0.08224251915356248</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.2042807411978372</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.0906496597621952</v>
+        <v>-0.08857349001375356</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1119692744646573</v>
+        <v>-0.1004234903847158</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.293972315901632</v>
+        <v>-0.2829779418384066</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3720454984471434</v>
+        <v>-0.3992866085629174</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3879900892111289</v>
+        <v>-0.3788869995705454</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.4832731651902826</v>
+        <v>-0.4985126819489309</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1836467293257925</v>
+        <v>-0.185390359741546</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1858825006216793</v>
+        <v>-0.1958678370243921</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.3547931052734848</v>
+        <v>-0.3532123031174162</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.5230184025914967</v>
+        <v>0.4973084038619102</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4808647695726156</v>
+        <v>0.4773964138417788</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1746615683702405</v>
+        <v>0.2169371702629187</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.029766217841596</v>
+        <v>0.0277474065226609</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.005447507127415774</v>
+        <v>0.02229863023763671</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.2013133956594963</v>
+        <v>-0.195675084960758</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.145753346076748</v>
+        <v>0.1515995440936997</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.138279078473117</v>
+        <v>0.1386981511345478</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.07164577349277754</v>
+        <v>-0.0881009845347471</v>
       </c>
     </row>
     <row r="58">
